--- a/ForHer22_PROGRAM_oldVersion.xlsx
+++ b/ForHer22_PROGRAM_oldVersion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanecakr\Documents\R_github\forests2heritage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B46446-973D-4025-B276-1A0CB0E0F1AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FF050-B8A1-484D-801C-E951B6B91C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DECA21-1FE6-4758-AA98-733CFD1E0FA3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="program with all time slots" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk65507359" localSheetId="0">'ORAL and POSTER PRESENTATIONS'!$D$65</definedName>
+    <definedName name="_Hlk65507359" localSheetId="0">'ORAL and POSTER PRESENTATIONS'!$D$72</definedName>
     <definedName name="_Hlk65507359" localSheetId="1">'program with all time slots'!$D$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="386">
   <si>
     <t>day</t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>session 1</t>
   </si>
   <si>
-    <t xml:space="preserve">chair: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Advancing Elm dendrochronology in the United Kingdom </t>
   </si>
   <si>
@@ -1172,13 +1169,76 @@
   </si>
   <si>
     <t>The Rosewoods, where fine arts and nature conservation meet: the importance of identifying wood to the species level and the methods to do that</t>
+  </si>
+  <si>
+    <t>Built heritage</t>
+  </si>
+  <si>
+    <t>chair:</t>
+  </si>
+  <si>
+    <t>Shipwrecks and archaeological structures</t>
+  </si>
+  <si>
+    <t>Furniture and works of art</t>
+  </si>
+  <si>
+    <t>Forest history</t>
+  </si>
+  <si>
+    <t>session 5</t>
+  </si>
+  <si>
+    <t>Evidence of timber trade and transport</t>
+  </si>
+  <si>
+    <t>Novel methods for dating and provenance analysis</t>
+  </si>
+  <si>
+    <t>Non-invasive techniques for the study of wooden cultural heritage</t>
+  </si>
+  <si>
+    <t>(chair: Gabri van Tussenbroek)</t>
+  </si>
+  <si>
+    <t>(chair: Mike Belasus)</t>
+  </si>
+  <si>
+    <t>(chair: Paul van Duin)</t>
+  </si>
+  <si>
+    <t>12:30 - 12:45</t>
+  </si>
+  <si>
+    <t>12:45 - 13:45</t>
+  </si>
+  <si>
+    <t>(chair: tba)</t>
+  </si>
+  <si>
+    <t>(chair: Neil Loader)</t>
+  </si>
+  <si>
+    <t>(chair: Francien Bossema)</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>(chair: Anne Crone)</t>
+  </si>
+  <si>
+    <t>(chair: Roberta D'Andrea)</t>
+  </si>
+  <si>
+    <t>S5-O-014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1296,6 +1356,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1378,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1553,6 +1627,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1872,10 +1958,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95:G124"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89:G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1975,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>15</v>
@@ -1998,33 +2084,25 @@
         <v>356</v>
       </c>
       <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
-        <v>357</v>
+      <c r="E7" s="30" t="s">
+        <v>365</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>341</v>
-      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="27"/>
       <c r="G8" s="1">
         <v>4</v>
       </c>
@@ -2033,17 +2111,17 @@
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
+      <c r="B9" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>341</v>
@@ -2057,16 +2135,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>341</v>
@@ -2075,21 +2153,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>341</v>
@@ -2102,97 +2180,99 @@
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="48"/>
+      <c r="B12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>341</v>
+      </c>
       <c r="G12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>341</v>
       </c>
       <c r="G13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>341</v>
-      </c>
+      <c r="B14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="48"/>
       <c r="G14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>341</v>
-      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="F15" s="27"/>
       <c r="G15" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="45" t="s">
+        <v>382</v>
+      </c>
       <c r="C16" s="47" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>341</v>
@@ -2205,15 +2285,17 @@
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="45" t="s">
+        <v>382</v>
+      </c>
       <c r="C17" s="47" t="s">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>341</v>
@@ -2226,15 +2308,17 @@
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="45" t="s">
+        <v>382</v>
+      </c>
       <c r="C18" s="47" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>341</v>
@@ -2243,36 +2327,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>341</v>
+      </c>
       <c r="G19" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F20" s="27"/>
+      <c r="B20" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>341</v>
+      </c>
       <c r="G20" s="1">
         <v>16</v>
       </c>
@@ -2281,110 +2377,90 @@
       <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="B21" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>341</v>
       </c>
       <c r="G21" s="1">
         <v>17</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B22" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" s="27"/>
       <c r="G23" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="F24" s="60"/>
       <c r="G24" s="1">
         <v>20</v>
       </c>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>68</v>
+      <c r="B25" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>59</v>
@@ -2392,23 +2468,22 @@
       <c r="G25" s="1">
         <v>21</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>59</v>
@@ -2416,107 +2491,115 @@
       <c r="G26" s="1">
         <v>22</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="27"/>
+      <c r="B27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="G27" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="27"/>
+      <c r="B28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G29" s="1">
         <v>25</v>
       </c>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>343</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1">
         <v>26</v>
       </c>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="B31" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="1">
         <v>27</v>
       </c>
@@ -2525,1509 +2608,1505 @@
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>343</v>
-      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="27"/>
       <c r="G32" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>105</v>
+        <v>207</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>107</v>
+        <v>343</v>
       </c>
       <c r="G34" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="48"/>
+      <c r="B35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="G35" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>59</v>
+      <c r="B36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="G36" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>59</v>
+      <c r="B37" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="G37" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>59</v>
+      <c r="B38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="G38" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="B39" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="48"/>
       <c r="G39" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="F40" s="48"/>
       <c r="G40" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="27"/>
+      <c r="B41" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="G41" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="27"/>
+      <c r="B42" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="G42" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="B43" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>59</v>
       </c>
       <c r="G43" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="15" t="s">
+      <c r="B44" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>59</v>
       </c>
       <c r="G44" s="1">
         <v>40</v>
       </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="15" t="s">
+      <c r="B45" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>59</v>
       </c>
       <c r="G45" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="48"/>
+      <c r="B46" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="17" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="1">
-        <v>4</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="12"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="27"/>
+      <c r="E52" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" s="27"/>
       <c r="G52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="F53" s="27"/>
       <c r="G53" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G54" s="1">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G55" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G56" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="48"/>
+      <c r="B57" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="G57" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F58" s="26" t="s">
+      <c r="B58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G58" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="26" t="s">
+      <c r="B59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="26" t="s">
+      <c r="B60" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G60" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="26" t="s">
+      <c r="B61" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>149</v>
       </c>
       <c r="G61" s="1">
-        <v>14</v>
-      </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>149</v>
-      </c>
+      <c r="B62" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="48"/>
+      <c r="E62" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="48"/>
       <c r="G62" s="1">
-        <v>15</v>
-      </c>
-      <c r="I62" s="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="30"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="62" t="s">
+        <v>368</v>
+      </c>
       <c r="F63" s="27"/>
       <c r="G63" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F64" s="27"/>
+      <c r="B64" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>149</v>
+      </c>
       <c r="G64" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>342</v>
+      <c r="B65" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G65" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>342</v>
+      <c r="B66" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G66" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>342</v>
+      <c r="B67" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G67" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>342</v>
+      <c r="B68" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="G68" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="B69" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="F70" s="27"/>
       <c r="G70" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="32"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="62" t="s">
+        <v>384</v>
+      </c>
       <c r="F71" s="27"/>
       <c r="G71" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F72" s="27"/>
+      <c r="B72" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="G72" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>214</v>
+        <v>196</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G73" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>217</v>
+        <v>20</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="G74" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>221</v>
+        <v>24</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="G75" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>223</v>
+        <v>28</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="G76" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>227</v>
+        <v>32</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="G77" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>230</v>
+        <v>346</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="G78" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="48" t="s">
-        <v>232</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="51"/>
+      <c r="E79" s="32"/>
       <c r="F79" s="27"/>
       <c r="G79" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="24"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="40"/>
+      <c r="C80" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B81" s="40"/>
-      <c r="C81" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="49" t="s">
-        <v>357</v>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="62" t="s">
+        <v>383</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G82" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G83" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G84" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G85" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G86" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>218</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="48"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F87" s="27"/>
       <c r="G87" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G88" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="55.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="24"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B89" s="40"/>
+      <c r="C89" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D89" s="41"/>
+      <c r="E89" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="F89" s="27"/>
       <c r="G89" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="55" t="s">
-        <v>36</v>
-      </c>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
       <c r="D90" s="41"/>
-      <c r="E90" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="48"/>
+      <c r="E90" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" s="27"/>
       <c r="G90" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>342</v>
+      <c r="B91" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="G91" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C92" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>342</v>
+      <c r="B92" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="G92" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>342</v>
+      <c r="B93" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="G93" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C94" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="F94" s="26" t="s">
+      <c r="B94" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F94" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G94" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="43"/>
+      <c r="B95" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="G95" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="41"/>
-      <c r="E96" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F96" s="43"/>
+      <c r="B96" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>218</v>
+      </c>
       <c r="G96" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>274</v>
+        <v>27</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>358</v>
+        <v>256</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="G97" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>277</v>
+        <v>31</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G98" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B99" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B99" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="48"/>
       <c r="G99" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="B100" s="40"/>
+      <c r="C100" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D100" s="41"/>
+      <c r="E100" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="27"/>
       <c r="G100" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>260</v>
+      <c r="B101" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="G101" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>260</v>
+      <c r="B102" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C102" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="G102" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="27"/>
+      <c r="B103" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C103" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>342</v>
+      </c>
       <c r="G103" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4035,437 +4114,761 @@
         <v>234</v>
       </c>
       <c r="B104" s="40"/>
-      <c r="C104" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="49" t="s">
-        <v>357</v>
+      <c r="C104" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D104" s="41"/>
+      <c r="E104" s="62" t="s">
+        <v>371</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F105" s="15" t="s">
+      <c r="B105" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="38"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="40"/>
+      <c r="C107" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107" s="41"/>
+      <c r="E107" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="40"/>
+      <c r="C108" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" s="41"/>
+      <c r="E108" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F109" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G109" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G110" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G111" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G112" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G113" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F106" s="15" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F114" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G114" s="1">
         <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G107" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G108" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G109" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G110" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="41"/>
-      <c r="E111" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="48"/>
-      <c r="G111" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="45"/>
-      <c r="C112" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="E112" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="G112" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B113" s="45"/>
-      <c r="C113" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="G113" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B114" s="45"/>
-      <c r="C114" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="G114" s="1">
-        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="45"/>
-      <c r="C115" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>302</v>
-      </c>
+      <c r="B115" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="51"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="F116" s="26" t="s">
-        <v>302</v>
-      </c>
+      <c r="B116" s="40"/>
+      <c r="C116" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D116" s="41"/>
+      <c r="E116" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F116" s="27"/>
       <c r="G116" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B117" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="27"/>
+      <c r="B117" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="G117" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="48" t="s">
+      <c r="B118" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G118" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="40"/>
+      <c r="C119" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>302</v>
-      </c>
+      <c r="D119" s="41"/>
+      <c r="E119" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="F119" s="27"/>
       <c r="G119" s="1">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="40"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="F120" s="27"/>
+      <c r="G120" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G121" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G122" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G123" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G124" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="41"/>
+      <c r="E125" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="48"/>
+      <c r="G125" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="40"/>
+      <c r="C126" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" s="41"/>
+      <c r="E126" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F126" s="27"/>
+      <c r="G126" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G127" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B128" s="40"/>
+      <c r="C128" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="41"/>
+      <c r="E128" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E129" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G129" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C130" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G130" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G131" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G132" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D133" s="38"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="40"/>
+      <c r="C134" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D134" s="41"/>
+      <c r="E134" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G135" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C136" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D136" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E136" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="F120" s="15" t="s">
+      <c r="F136" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="G120" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="48" t="s">
+      <c r="G136" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" s="40"/>
+      <c r="C137" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="18" t="s">
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C122" s="42" t="s">
+      <c r="C138" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D138" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" s="18" t="s">
+      <c r="E138" s="7"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C123" s="42" t="s">
+      <c r="C139" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B124" s="40" t="s">
+      <c r="D139" s="9"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B140" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="41" t="s">
+      <c r="C140" s="38"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="27"/>
-      <c r="G124" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="18"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="18"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="18"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
